--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N2">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O2">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P2">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q2">
-        <v>24338.62107247256</v>
+        <v>2208.503812566281</v>
       </c>
       <c r="R2">
-        <v>219047.589652253</v>
+        <v>19876.53431309653</v>
       </c>
       <c r="S2">
-        <v>0.2904667280767473</v>
+        <v>0.2168317572939975</v>
       </c>
       <c r="T2">
-        <v>0.2904667280767474</v>
+        <v>0.2168317572939975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P3">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q3">
-        <v>466.7170410114913</v>
+        <v>689.0879410914841</v>
       </c>
       <c r="R3">
-        <v>4200.453369103421</v>
+        <v>6201.791469823357</v>
       </c>
       <c r="S3">
-        <v>0.005569985720908258</v>
+        <v>0.06765492019837067</v>
       </c>
       <c r="T3">
-        <v>0.005569985720908259</v>
+        <v>0.06765492019837066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P4">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q4">
-        <v>749.7137265568925</v>
+        <v>1106.920559663886</v>
       </c>
       <c r="R4">
-        <v>6747.423539012033</v>
+        <v>9962.285036974979</v>
       </c>
       <c r="S4">
-        <v>0.008947380071318187</v>
+        <v>0.1086778880666172</v>
       </c>
       <c r="T4">
-        <v>0.008947380071318187</v>
+        <v>0.1086778880666172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N5">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O5">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P5">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q5">
-        <v>20086.22032514585</v>
+        <v>1234.466800757929</v>
       </c>
       <c r="R5">
-        <v>180775.9829263127</v>
+        <v>11110.20120682136</v>
       </c>
       <c r="S5">
-        <v>0.2397168960353539</v>
+        <v>0.1212004272785956</v>
       </c>
       <c r="T5">
-        <v>0.2397168960353538</v>
+        <v>0.1212004272785956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P6">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q6">
         <v>385.1730665982461</v>
@@ -818,10 +818,10 @@
         <v>3466.557599384214</v>
       </c>
       <c r="S6">
-        <v>0.004596807685404084</v>
+        <v>0.03781644044153494</v>
       </c>
       <c r="T6">
-        <v>0.004596807685404084</v>
+        <v>0.03781644044153494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P7">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q7">
         <v>618.7250726969005</v>
@@ -880,10 +880,10 @@
         <v>5568.525654272104</v>
       </c>
       <c r="S7">
-        <v>0.007384109679433811</v>
+        <v>0.06074666660359179</v>
       </c>
       <c r="T7">
-        <v>0.00738410967943381</v>
+        <v>0.06074666660359181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>223.2367336666667</v>
+        <v>13.71977066666667</v>
       </c>
       <c r="N8">
-        <v>669.7102010000001</v>
+        <v>41.159312</v>
       </c>
       <c r="O8">
-        <v>0.9523995969492647</v>
+        <v>0.5515038136402627</v>
       </c>
       <c r="P8">
-        <v>0.9523995969492648</v>
+        <v>0.5515038136402626</v>
       </c>
       <c r="Q8">
-        <v>35378.07803898942</v>
+        <v>2174.279785185942</v>
       </c>
       <c r="R8">
-        <v>318402.7023509048</v>
+        <v>19568.51806667347</v>
       </c>
       <c r="S8">
-        <v>0.4222159728371634</v>
+        <v>0.2134716290676695</v>
       </c>
       <c r="T8">
-        <v>0.4222159728371634</v>
+        <v>0.2134716290676695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.842353</v>
       </c>
       <c r="O9">
-        <v>0.01826320071400581</v>
+        <v>0.172077867958883</v>
       </c>
       <c r="P9">
-        <v>0.01826320071400582</v>
+        <v>0.1720778679588829</v>
       </c>
       <c r="Q9">
-        <v>678.4095060219186</v>
+        <v>678.4095060219187</v>
       </c>
       <c r="R9">
-        <v>6105.685554197267</v>
+        <v>6105.685554197268</v>
       </c>
       <c r="S9">
-        <v>0.008096407307693471</v>
+        <v>0.06660650731897735</v>
       </c>
       <c r="T9">
-        <v>0.008096407307693471</v>
+        <v>0.06660650731897735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>20.629391</v>
       </c>
       <c r="O10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="P10">
-        <v>0.0293372023367295</v>
+        <v>0.2764183184008545</v>
       </c>
       <c r="Q10">
         <v>1089.767191249377</v>
@@ -1066,10 +1066,10 @@
         <v>9807.904721244395</v>
       </c>
       <c r="S10">
-        <v>0.0130057125859775</v>
+        <v>0.1069937637306454</v>
       </c>
       <c r="T10">
-        <v>0.0130057125859775</v>
+        <v>0.1069937637306454</v>
       </c>
     </row>
   </sheetData>
